--- a/DB/Vorlagen für BSP-Daten/Venue.xlsx
+++ b/DB/Vorlagen für BSP-Daten/Venue.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\GitHub\location-based-recommendations\DB\Vorlagen für BSP-Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA9E357D-E914-4289-9F7E-0961992573FE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7E00A3FD-A22A-4D5F-9588-1C54B2ACF042}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="11490" windowHeight="4590" xr2:uid="{FBA92FE4-48AD-4A6A-9333-55908B3F776C}"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="11490" windowHeight="4590" xr2:uid="{FBA92FE4-48AD-4A6A-9333-55908B3F776C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Venue" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>venue_id</t>
   </si>
@@ -40,6 +40,54 @@
   </si>
   <si>
     <t>lng</t>
+  </si>
+  <si>
+    <t>Grüner Jäger</t>
+  </si>
+  <si>
+    <t>Bar in Innenstadt</t>
+  </si>
+  <si>
+    <t>52.2735393</t>
+  </si>
+  <si>
+    <t>8.04409910000004</t>
+  </si>
+  <si>
+    <t>Tiefenrausch</t>
+  </si>
+  <si>
+    <t>52.273695</t>
+  </si>
+  <si>
+    <t>8.044172000000003</t>
+  </si>
+  <si>
+    <t>Balou</t>
+  </si>
+  <si>
+    <t>52.27142380000001</t>
+  </si>
+  <si>
+    <t>8.047127400000022</t>
+  </si>
+  <si>
+    <t>Deichbrand 2018</t>
+  </si>
+  <si>
+    <t>53.7646103000000000</t>
+  </si>
+  <si>
+    <t>8.6797781000000210</t>
+  </si>
+  <si>
+    <t>Schloss Osnabrück</t>
+  </si>
+  <si>
+    <t>52.2710723999999900</t>
+  </si>
+  <si>
+    <t>8.0454575999999630</t>
   </si>
 </sst>
 </file>
@@ -75,8 +123,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -391,13 +449,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFC095C-4A3F-462C-BE5A-57B1B6784A4A}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="29" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -409,11 +473,69 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
